--- a/Source/NetworkStuff/WebAutomation/Book1.xlsx
+++ b/Source/NetworkStuff/WebAutomation/Book1.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theok\Repos\FactCheckThisBitch\Source\NetworkStuff\WebAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14E5636-8B2E-416B-9974-D4C03EA7C614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDC9B73-FB8D-4B88-8CF0-38D2F0B22F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9F78B371-5E18-40C2-992A-732B5DD7542A}"/>
   </bookViews>
   <sheets>
-    <sheet name="minus COVID" sheetId="5" r:id="rId1"/>
+    <sheet name="all major news sites" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -151,7 +151,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'minus COVID'!$B$1</c:f>
+              <c:f>'all major news sites'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -187,9 +187,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'minus COVID'!$A$2:$A$51</c:f>
+              <c:f>'all major news sites'!$A$2:$A$51</c:f>
               <c:strCache>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>    01-2018</c:v>
                 </c:pt>
@@ -336,162 +336,168 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>Jan-22</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Feb-22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'minus COVID'!$B$2:$B$51</c:f>
+              <c:f>'all major news sites'!$B$2:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>8080</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9280</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4760</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9180</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9960</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8630</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4100</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9000</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9280</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10900</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5920</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10700</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11200</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5730</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10700</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10600</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10600</c:v>
+                  <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5400</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10900</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11100</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10700</c:v>
+                  <c:v>262</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5820</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11300</c:v>
+                  <c:v>332</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11600</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12200</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6780</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>12600</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11500</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6060</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12500</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12500</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>13600</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7090</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>14500</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>15000</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>16500</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8920</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>18100</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>19100</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9750</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>20200</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>20600</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>21500</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>11000</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>23100</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>29200</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>34000</c:v>
+                  <c:v>308</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>19000</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>21700</c:v>
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -524,7 +530,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'minus COVID'!$C$1</c:f>
+              <c:f>'all major news sites'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -560,9 +566,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'minus COVID'!$A$2:$A$51</c:f>
+              <c:f>'all major news sites'!$A$2:$A$51</c:f>
               <c:strCache>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>    01-2018</c:v>
                 </c:pt>
@@ -709,162 +715,168 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>Jan-22</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Feb-22</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'minus COVID'!$C$2:$C$51</c:f>
+              <c:f>'all major news sites'!$C$2:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>4020</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3850</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1920</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4020</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3860</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4620</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2420</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4290</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4150</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4100</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2050</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4250</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4440</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2330</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4780</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4820</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4780</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2330</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4730</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4730</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5320</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2540</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5170</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5150</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5160</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2640</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4660</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4380</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2420</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4910</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4980</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5820</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2760</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5280</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5510</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8260</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4940</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>10400</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>10200</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5120</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>10500</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>10600</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>10500</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6410</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>12000</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>13700</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>15000</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>8020</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6480</c:v>
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1999,7 +2011,7 @@
   <dimension ref="A1:M75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2030,10 +2042,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8080</v>
+        <v>150</v>
       </c>
       <c r="C2">
-        <v>4020</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2041,10 +2053,10 @@
         <v>43132</v>
       </c>
       <c r="B3">
-        <v>9280</v>
+        <v>112</v>
       </c>
       <c r="C3">
-        <v>3850</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2052,10 +2064,10 @@
         <v>43160</v>
       </c>
       <c r="B4">
-        <v>4760</v>
+        <v>49</v>
       </c>
       <c r="C4">
-        <v>1920</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2063,10 +2075,10 @@
         <v>43191</v>
       </c>
       <c r="B5">
-        <v>9180</v>
+        <v>184</v>
       </c>
       <c r="C5">
-        <v>4020</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2074,10 +2086,10 @@
         <v>43221</v>
       </c>
       <c r="B6">
-        <v>9960</v>
+        <v>149</v>
       </c>
       <c r="C6">
-        <v>3860</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2085,10 +2097,10 @@
         <v>43252</v>
       </c>
       <c r="B7">
-        <v>8630</v>
+        <v>165</v>
       </c>
       <c r="C7">
-        <v>4620</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -2096,10 +2108,10 @@
         <v>43282</v>
       </c>
       <c r="B8">
-        <v>4100</v>
+        <v>70</v>
       </c>
       <c r="C8">
-        <v>2420</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2107,10 +2119,10 @@
         <v>43313</v>
       </c>
       <c r="B9">
-        <v>9000</v>
+        <v>143</v>
       </c>
       <c r="C9">
-        <v>4290</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -2118,10 +2130,10 @@
         <v>43344</v>
       </c>
       <c r="B10">
-        <v>9280</v>
+        <v>184</v>
       </c>
       <c r="C10">
-        <v>4150</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2129,10 +2141,10 @@
         <v>43374</v>
       </c>
       <c r="B11">
-        <v>10900</v>
+        <v>165</v>
       </c>
       <c r="C11">
-        <v>4100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -2140,10 +2152,10 @@
         <v>43405</v>
       </c>
       <c r="B12">
-        <v>5920</v>
+        <v>80</v>
       </c>
       <c r="C12">
-        <v>2050</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -2151,10 +2163,10 @@
         <v>43435</v>
       </c>
       <c r="B13">
-        <v>10700</v>
+        <v>283</v>
       </c>
       <c r="C13">
-        <v>4250</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -2162,10 +2174,10 @@
         <v>43466</v>
       </c>
       <c r="B14">
-        <v>11200</v>
+        <v>145</v>
       </c>
       <c r="C14">
-        <v>4440</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -2173,10 +2185,10 @@
         <v>43497</v>
       </c>
       <c r="B15">
-        <v>5730</v>
+        <v>112</v>
       </c>
       <c r="C15">
-        <v>2330</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -2184,10 +2196,10 @@
         <v>43525</v>
       </c>
       <c r="B16">
-        <v>10700</v>
+        <v>166</v>
       </c>
       <c r="C16">
-        <v>4780</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2195,10 +2207,10 @@
         <v>43556</v>
       </c>
       <c r="B17">
-        <v>10600</v>
+        <v>168</v>
       </c>
       <c r="C17">
-        <v>4820</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2206,10 +2218,10 @@
         <v>43586</v>
       </c>
       <c r="B18">
-        <v>10600</v>
+        <v>306</v>
       </c>
       <c r="C18">
-        <v>4780</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2217,10 +2229,10 @@
         <v>43617</v>
       </c>
       <c r="B19">
-        <v>5400</v>
+        <v>118</v>
       </c>
       <c r="C19">
-        <v>2330</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2228,10 +2240,10 @@
         <v>43647</v>
       </c>
       <c r="B20">
-        <v>10900</v>
+        <v>175</v>
       </c>
       <c r="C20">
-        <v>4730</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2239,10 +2251,10 @@
         <v>43678</v>
       </c>
       <c r="B21">
-        <v>11100</v>
+        <v>315</v>
       </c>
       <c r="C21">
-        <v>4730</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2250,10 +2262,10 @@
         <v>43709</v>
       </c>
       <c r="B22">
-        <v>10700</v>
+        <v>262</v>
       </c>
       <c r="C22">
-        <v>5320</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2261,10 +2273,10 @@
         <v>43739</v>
       </c>
       <c r="B23">
-        <v>5820</v>
+        <v>77</v>
       </c>
       <c r="C23">
-        <v>2540</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2272,10 +2284,10 @@
         <v>43770</v>
       </c>
       <c r="B24">
-        <v>11300</v>
+        <v>332</v>
       </c>
       <c r="C24">
-        <v>5170</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2283,10 +2295,10 @@
         <v>43800</v>
       </c>
       <c r="B25">
-        <v>11600</v>
+        <v>193</v>
       </c>
       <c r="C25">
-        <v>5150</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2294,10 +2306,10 @@
         <v>43831</v>
       </c>
       <c r="B26">
-        <v>12200</v>
+        <v>202</v>
       </c>
       <c r="C26">
-        <v>5160</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2305,10 +2317,10 @@
         <v>43862</v>
       </c>
       <c r="B27">
-        <v>6780</v>
+        <v>118</v>
       </c>
       <c r="C27">
-        <v>2640</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2316,10 +2328,10 @@
         <v>43891</v>
       </c>
       <c r="B28">
-        <v>12600</v>
+        <v>260</v>
       </c>
       <c r="C28">
-        <v>4660</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2327,10 +2339,10 @@
         <v>43922</v>
       </c>
       <c r="B29">
-        <v>11500</v>
+        <v>39</v>
       </c>
       <c r="C29">
-        <v>4380</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2338,10 +2350,10 @@
         <v>43952</v>
       </c>
       <c r="B30">
-        <v>6060</v>
+        <v>21</v>
       </c>
       <c r="C30">
-        <v>2420</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2349,10 +2361,10 @@
         <v>43983</v>
       </c>
       <c r="B31">
-        <v>12500</v>
+        <v>88</v>
       </c>
       <c r="C31">
-        <v>4910</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2360,10 +2372,10 @@
         <v>44013</v>
       </c>
       <c r="B32">
-        <v>12500</v>
+        <v>236</v>
       </c>
       <c r="C32">
-        <v>4980</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2371,10 +2383,10 @@
         <v>44044</v>
       </c>
       <c r="B33">
-        <v>13600</v>
+        <v>145</v>
       </c>
       <c r="C33">
-        <v>5820</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2382,10 +2394,10 @@
         <v>44075</v>
       </c>
       <c r="B34">
-        <v>7090</v>
+        <v>112</v>
       </c>
       <c r="C34">
-        <v>2760</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2393,10 +2405,10 @@
         <v>44105</v>
       </c>
       <c r="B35">
-        <v>14500</v>
+        <v>136</v>
       </c>
       <c r="C35">
-        <v>5280</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2404,10 +2416,10 @@
         <v>44136</v>
       </c>
       <c r="B36">
-        <v>15000</v>
+        <v>194</v>
       </c>
       <c r="C36">
-        <v>5510</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2415,10 +2427,10 @@
         <v>44166</v>
       </c>
       <c r="B37">
-        <v>16500</v>
+        <v>126</v>
       </c>
       <c r="C37">
-        <v>8260</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2426,10 +2438,10 @@
         <v>44197</v>
       </c>
       <c r="B38">
-        <v>8920</v>
+        <v>69</v>
       </c>
       <c r="C38">
-        <v>4940</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2437,10 +2449,10 @@
         <v>44228</v>
       </c>
       <c r="B39">
-        <v>18100</v>
+        <v>121</v>
       </c>
       <c r="C39">
-        <v>10400</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2448,10 +2460,10 @@
         <v>44256</v>
       </c>
       <c r="B40">
-        <v>19100</v>
+        <v>129</v>
       </c>
       <c r="C40">
-        <v>10200</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2459,10 +2471,10 @@
         <v>44287</v>
       </c>
       <c r="B41">
-        <v>9750</v>
+        <v>53</v>
       </c>
       <c r="C41">
-        <v>5120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2470,10 +2482,10 @@
         <v>44317</v>
       </c>
       <c r="B42">
-        <v>20200</v>
+        <v>125</v>
       </c>
       <c r="C42">
-        <v>10500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2481,10 +2493,10 @@
         <v>44348</v>
       </c>
       <c r="B43">
-        <v>20600</v>
+        <v>339</v>
       </c>
       <c r="C43">
-        <v>10600</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2492,10 +2504,10 @@
         <v>44378</v>
       </c>
       <c r="B44">
-        <v>21500</v>
+        <v>315</v>
       </c>
       <c r="C44">
-        <v>10500</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2503,10 +2515,10 @@
         <v>44409</v>
       </c>
       <c r="B45">
-        <v>11000</v>
+        <v>168</v>
       </c>
       <c r="C45">
-        <v>6410</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2514,10 +2526,10 @@
         <v>44440</v>
       </c>
       <c r="B46">
-        <v>23100</v>
+        <v>225</v>
       </c>
       <c r="C46">
-        <v>12000</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2525,10 +2537,10 @@
         <v>44470</v>
       </c>
       <c r="B47">
-        <v>29200</v>
+        <v>232</v>
       </c>
       <c r="C47">
-        <v>13700</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2536,10 +2548,10 @@
         <v>44501</v>
       </c>
       <c r="B48">
-        <v>34000</v>
+        <v>308</v>
       </c>
       <c r="C48">
-        <v>15000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -2547,10 +2559,10 @@
         <v>44531</v>
       </c>
       <c r="B49">
-        <v>19000</v>
+        <v>123</v>
       </c>
       <c r="C49">
-        <v>8020</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -2558,14 +2570,22 @@
         <v>44562</v>
       </c>
       <c r="B50">
-        <v>21700</v>
+        <v>98</v>
       </c>
       <c r="C50">
-        <v>6480</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
+      <c r="A51" s="1">
+        <v>44593</v>
+      </c>
+      <c r="B51">
+        <v>209</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>

--- a/Source/NetworkStuff/WebAutomation/Book1.xlsx
+++ b/Source/NetworkStuff/WebAutomation/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theok\Repos\FactCheckThisBitch\Source\NetworkStuff\WebAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDC9B73-FB8D-4B88-8CF0-38D2F0B22F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AFEF07-3449-4089-8DEB-3620DF0B0E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9F78B371-5E18-40C2-992A-732B5DD7542A}"/>
   </bookViews>
@@ -350,154 +350,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>150</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>112</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>184</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>149</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>165</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>143</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>184</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>165</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>283</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>145</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>306</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>262</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>332</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>236</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>136</c:v>
-                </c:pt>
                 <c:pt idx="34">
-                  <c:v>194</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>69</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>121</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>129</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>125</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>339</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>315</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>168</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>225</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>232</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>308</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>123</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>98</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>209</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -735,7 +735,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -768,7 +768,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>4</c:v>
@@ -777,7 +777,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1</c:v>
@@ -828,13 +828,13 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2</c:v>
@@ -858,7 +858,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>7</c:v>
@@ -873,7 +873,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>27</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>10</c:v>
@@ -1057,6 +1057,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1248360288"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2011,7 +2012,7 @@
   <dimension ref="A1:M75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2042,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -2053,7 +2054,7 @@
         <v>43132</v>
       </c>
       <c r="B3">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2064,10 +2065,10 @@
         <v>43160</v>
       </c>
       <c r="B4">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2075,7 +2076,7 @@
         <v>43191</v>
       </c>
       <c r="B5">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2086,7 +2087,7 @@
         <v>43221</v>
       </c>
       <c r="B6">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2097,7 +2098,7 @@
         <v>43252</v>
       </c>
       <c r="B7">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -2119,7 +2120,7 @@
         <v>43313</v>
       </c>
       <c r="B9">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2130,7 +2131,7 @@
         <v>43344</v>
       </c>
       <c r="B10">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -2141,7 +2142,7 @@
         <v>43374</v>
       </c>
       <c r="B11">
-        <v>165</v>
+        <v>236</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2152,7 +2153,7 @@
         <v>43405</v>
       </c>
       <c r="B12">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2163,7 +2164,7 @@
         <v>43435</v>
       </c>
       <c r="B13">
-        <v>283</v>
+        <v>149</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2174,7 +2175,7 @@
         <v>43466</v>
       </c>
       <c r="B14">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -2185,10 +2186,10 @@
         <v>43497</v>
       </c>
       <c r="B15">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -2196,7 +2197,7 @@
         <v>43525</v>
       </c>
       <c r="B16">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -2207,7 +2208,7 @@
         <v>43556</v>
       </c>
       <c r="B17">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -2218,10 +2219,10 @@
         <v>43586</v>
       </c>
       <c r="B18">
-        <v>306</v>
+        <v>170</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2229,7 +2230,7 @@
         <v>43617</v>
       </c>
       <c r="B19">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -2240,7 +2241,7 @@
         <v>43647</v>
       </c>
       <c r="B20">
-        <v>175</v>
+        <v>253</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -2251,7 +2252,7 @@
         <v>43678</v>
       </c>
       <c r="B21">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -2262,7 +2263,7 @@
         <v>43709</v>
       </c>
       <c r="B22">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2273,7 +2274,7 @@
         <v>43739</v>
       </c>
       <c r="B23">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -2284,7 +2285,7 @@
         <v>43770</v>
       </c>
       <c r="B24">
-        <v>332</v>
+        <v>172</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -2295,7 +2296,7 @@
         <v>43800</v>
       </c>
       <c r="B25">
-        <v>193</v>
+        <v>248</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -2306,7 +2307,7 @@
         <v>43831</v>
       </c>
       <c r="B26">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -2317,7 +2318,7 @@
         <v>43862</v>
       </c>
       <c r="B27">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -2328,7 +2329,7 @@
         <v>43891</v>
       </c>
       <c r="B28">
-        <v>260</v>
+        <v>157</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -2339,7 +2340,7 @@
         <v>43922</v>
       </c>
       <c r="B29">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2350,7 +2351,7 @@
         <v>43952</v>
       </c>
       <c r="B30">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -2361,7 +2362,7 @@
         <v>43983</v>
       </c>
       <c r="B31">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -2372,7 +2373,7 @@
         <v>44013</v>
       </c>
       <c r="B32">
-        <v>236</v>
+        <v>108</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -2383,7 +2384,7 @@
         <v>44044</v>
       </c>
       <c r="B33">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -2394,7 +2395,7 @@
         <v>44075</v>
       </c>
       <c r="B34">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -2405,10 +2406,10 @@
         <v>44105</v>
       </c>
       <c r="B35">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C35">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2416,7 +2417,7 @@
         <v>44136</v>
       </c>
       <c r="B36">
-        <v>194</v>
+        <v>123</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -2430,7 +2431,7 @@
         <v>126</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2438,7 +2439,7 @@
         <v>44197</v>
       </c>
       <c r="B38">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -2449,7 +2450,7 @@
         <v>44228</v>
       </c>
       <c r="B39">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -2460,7 +2461,7 @@
         <v>44256</v>
       </c>
       <c r="B40">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -2482,7 +2483,7 @@
         <v>44317</v>
       </c>
       <c r="B42">
-        <v>125</v>
+        <v>212</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -2493,7 +2494,7 @@
         <v>44348</v>
       </c>
       <c r="B43">
-        <v>339</v>
+        <v>207</v>
       </c>
       <c r="C43">
         <v>8</v>
@@ -2504,7 +2505,7 @@
         <v>44378</v>
       </c>
       <c r="B44">
-        <v>315</v>
+        <v>236</v>
       </c>
       <c r="C44">
         <v>7</v>
@@ -2515,10 +2516,10 @@
         <v>44409</v>
       </c>
       <c r="B45">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C45">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2526,7 +2527,7 @@
         <v>44440</v>
       </c>
       <c r="B46">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="C46">
         <v>7</v>
@@ -2537,7 +2538,7 @@
         <v>44470</v>
       </c>
       <c r="B47">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -2548,7 +2549,7 @@
         <v>44501</v>
       </c>
       <c r="B48">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -2559,7 +2560,7 @@
         <v>44531</v>
       </c>
       <c r="B49">
-        <v>123</v>
+        <v>204</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -2570,10 +2571,10 @@
         <v>44562</v>
       </c>
       <c r="B50">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="C50">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -2581,7 +2582,7 @@
         <v>44593</v>
       </c>
       <c r="B51">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="C51">
         <v>10</v>
